--- a/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/French_200_Word_Talk_Time1.xlsx
+++ b/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/French_200_Word_Talk_Time1.xlsx
@@ -2958,7 +2958,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>418</v>
@@ -2995,7 +2995,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
         <v>418</v>
@@ -3032,7 +3032,7 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>418</v>
@@ -3069,7 +3069,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
         <v>418</v>
@@ -3143,7 +3143,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
         <v>418</v>
@@ -3180,7 +3180,7 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
         <v>418</v>
@@ -3217,7 +3217,7 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
         <v>418</v>
@@ -3254,7 +3254,7 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
         <v>418</v>
@@ -3291,7 +3291,7 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
         <v>418</v>
@@ -3328,7 +3328,7 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
         <v>418</v>
@@ -3365,7 +3365,7 @@
         <v>5</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
         <v>418</v>
@@ -3439,7 +3439,7 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
         <v>418</v>
@@ -3476,7 +3476,7 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
         <v>418</v>
@@ -3513,7 +3513,7 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
         <v>418</v>
@@ -3550,7 +3550,7 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
         <v>418</v>
@@ -3587,7 +3587,7 @@
         <v>5</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
         <v>418</v>
@@ -3624,7 +3624,7 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E42" t="s">
         <v>418</v>
@@ -3661,7 +3661,7 @@
         <v>5</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E44" t="s">
         <v>418</v>
@@ -3698,7 +3698,7 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
         <v>418</v>
@@ -3735,7 +3735,7 @@
         <v>5</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E48" t="s">
         <v>418</v>
@@ -3772,7 +3772,7 @@
         <v>5</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E50" t="s">
         <v>418</v>
@@ -3809,7 +3809,7 @@
         <v>5</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E52" t="s">
         <v>418</v>
@@ -3846,7 +3846,7 @@
         <v>5</v>
       </c>
       <c r="C54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54" t="s">
         <v>418</v>
@@ -3883,7 +3883,7 @@
         <v>5</v>
       </c>
       <c r="C56">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E56" t="s">
         <v>418</v>
@@ -3920,7 +3920,7 @@
         <v>5</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E58" t="s">
         <v>418</v>
@@ -3957,7 +3957,7 @@
         <v>5</v>
       </c>
       <c r="C60">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
         <v>418</v>
@@ -3994,7 +3994,7 @@
         <v>5</v>
       </c>
       <c r="C62">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E62" t="s">
         <v>418</v>
@@ -4031,7 +4031,7 @@
         <v>5</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E64" t="s">
         <v>418</v>
@@ -4068,7 +4068,7 @@
         <v>5</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
         <v>418</v>
@@ -4105,7 +4105,7 @@
         <v>5</v>
       </c>
       <c r="C68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E68" t="s">
         <v>418</v>
@@ -4142,7 +4142,7 @@
         <v>5</v>
       </c>
       <c r="C70">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E70" t="s">
         <v>418</v>
@@ -4179,7 +4179,7 @@
         <v>5</v>
       </c>
       <c r="C72">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E72" t="s">
         <v>418</v>
@@ -4216,7 +4216,7 @@
         <v>5</v>
       </c>
       <c r="C74">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E74" t="s">
         <v>418</v>
@@ -4253,7 +4253,7 @@
         <v>5</v>
       </c>
       <c r="C76">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E76" t="s">
         <v>418</v>
@@ -4399,7 +4399,7 @@
         <v>5</v>
       </c>
       <c r="C83">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E83" t="s">
         <v>418</v>
@@ -4436,7 +4436,7 @@
         <v>5</v>
       </c>
       <c r="C85">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E85" t="s">
         <v>418</v>
@@ -4473,7 +4473,7 @@
         <v>5</v>
       </c>
       <c r="C87">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E87" t="s">
         <v>418</v>
@@ -4510,7 +4510,7 @@
         <v>5</v>
       </c>
       <c r="C89">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E89" t="s">
         <v>418</v>
@@ -4547,7 +4547,7 @@
         <v>5</v>
       </c>
       <c r="C91">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E91" t="s">
         <v>418</v>
@@ -4584,7 +4584,7 @@
         <v>5</v>
       </c>
       <c r="C93">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E93" t="s">
         <v>418</v>
@@ -4621,7 +4621,7 @@
         <v>5</v>
       </c>
       <c r="C95">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E95" t="s">
         <v>418</v>
@@ -4658,7 +4658,7 @@
         <v>5</v>
       </c>
       <c r="C97">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E97" t="s">
         <v>418</v>
@@ -4695,7 +4695,7 @@
         <v>5</v>
       </c>
       <c r="C99">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E99" t="s">
         <v>418</v>
@@ -4732,7 +4732,7 @@
         <v>5</v>
       </c>
       <c r="C101">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E101" t="s">
         <v>418</v>
@@ -4769,7 +4769,7 @@
         <v>5</v>
       </c>
       <c r="C103">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E103" t="s">
         <v>418</v>
@@ -4806,7 +4806,7 @@
         <v>5</v>
       </c>
       <c r="C105">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E105" t="s">
         <v>418</v>
@@ -4843,7 +4843,7 @@
         <v>5</v>
       </c>
       <c r="C107">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E107" t="s">
         <v>418</v>
@@ -4880,7 +4880,7 @@
         <v>5</v>
       </c>
       <c r="C109">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E109" t="s">
         <v>418</v>
@@ -4917,7 +4917,7 @@
         <v>5</v>
       </c>
       <c r="C111">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E111" t="s">
         <v>418</v>
@@ -4954,7 +4954,7 @@
         <v>5</v>
       </c>
       <c r="C113">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E113" t="s">
         <v>418</v>
@@ -4991,7 +4991,7 @@
         <v>5</v>
       </c>
       <c r="C115">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E115" t="s">
         <v>418</v>
@@ -5028,7 +5028,7 @@
         <v>5</v>
       </c>
       <c r="C117">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E117" t="s">
         <v>418</v>
@@ -5065,7 +5065,7 @@
         <v>5</v>
       </c>
       <c r="C119">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E119" t="s">
         <v>418</v>
@@ -5102,7 +5102,7 @@
         <v>5</v>
       </c>
       <c r="C121">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E121" t="s">
         <v>418</v>
@@ -5139,7 +5139,7 @@
         <v>5</v>
       </c>
       <c r="C123">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E123" t="s">
         <v>418</v>
@@ -5176,7 +5176,7 @@
         <v>5</v>
       </c>
       <c r="C125">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E125" t="s">
         <v>418</v>
@@ -5213,7 +5213,7 @@
         <v>5</v>
       </c>
       <c r="C127">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E127" t="s">
         <v>418</v>
@@ -5250,7 +5250,7 @@
         <v>5</v>
       </c>
       <c r="C129">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E129" t="s">
         <v>418</v>
@@ -5287,7 +5287,7 @@
         <v>5</v>
       </c>
       <c r="C131">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E131" t="s">
         <v>418</v>
@@ -5324,7 +5324,7 @@
         <v>5</v>
       </c>
       <c r="C133">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E133" t="s">
         <v>418</v>
@@ -5361,7 +5361,7 @@
         <v>5</v>
       </c>
       <c r="C135">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E135" t="s">
         <v>418</v>
@@ -5398,7 +5398,7 @@
         <v>5</v>
       </c>
       <c r="C137">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E137" t="s">
         <v>418</v>
@@ -5472,7 +5472,7 @@
         <v>5</v>
       </c>
       <c r="C141">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E141" t="s">
         <v>418</v>
@@ -5509,7 +5509,7 @@
         <v>5</v>
       </c>
       <c r="C143">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E143" t="s">
         <v>418</v>
@@ -5546,7 +5546,7 @@
         <v>5</v>
       </c>
       <c r="C145">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E145" t="s">
         <v>418</v>
@@ -5620,7 +5620,7 @@
         <v>5</v>
       </c>
       <c r="C149">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E149" t="s">
         <v>418</v>
@@ -5766,7 +5766,7 @@
         <v>5</v>
       </c>
       <c r="C156">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E156" t="s">
         <v>418</v>
@@ -5803,7 +5803,7 @@
         <v>5</v>
       </c>
       <c r="C158">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E158" t="s">
         <v>418</v>
@@ -5840,7 +5840,7 @@
         <v>5</v>
       </c>
       <c r="C160">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E160" t="s">
         <v>418</v>
@@ -5877,7 +5877,7 @@
         <v>5</v>
       </c>
       <c r="C162">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E162" t="s">
         <v>418</v>
@@ -5914,7 +5914,7 @@
         <v>5</v>
       </c>
       <c r="C164">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E164" t="s">
         <v>418</v>
@@ -5951,7 +5951,7 @@
         <v>5</v>
       </c>
       <c r="C166">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E166" t="s">
         <v>418</v>
@@ -5988,7 +5988,7 @@
         <v>5</v>
       </c>
       <c r="C168">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E168" t="s">
         <v>418</v>
@@ -6025,7 +6025,7 @@
         <v>5</v>
       </c>
       <c r="C170">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E170" t="s">
         <v>418</v>
@@ -6062,7 +6062,7 @@
         <v>5</v>
       </c>
       <c r="C172">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E172" t="s">
         <v>418</v>
@@ -6099,7 +6099,7 @@
         <v>5</v>
       </c>
       <c r="C174">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E174" t="s">
         <v>418</v>
@@ -6136,7 +6136,7 @@
         <v>5</v>
       </c>
       <c r="C176">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E176" t="s">
         <v>418</v>
@@ -6173,7 +6173,7 @@
         <v>5</v>
       </c>
       <c r="C178">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E178" t="s">
         <v>418</v>
@@ -6210,7 +6210,7 @@
         <v>5</v>
       </c>
       <c r="C180">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E180" t="s">
         <v>418</v>
@@ -6247,7 +6247,7 @@
         <v>5</v>
       </c>
       <c r="C182">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E182" t="s">
         <v>418</v>
@@ -6284,7 +6284,7 @@
         <v>5</v>
       </c>
       <c r="C184">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E184" t="s">
         <v>418</v>
@@ -6321,7 +6321,7 @@
         <v>5</v>
       </c>
       <c r="C186">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E186" t="s">
         <v>418</v>
@@ -6358,7 +6358,7 @@
         <v>5</v>
       </c>
       <c r="C188">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E188" t="s">
         <v>418</v>
@@ -6395,7 +6395,7 @@
         <v>5</v>
       </c>
       <c r="C190">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E190" t="s">
         <v>418</v>
@@ -6432,7 +6432,7 @@
         <v>5</v>
       </c>
       <c r="C192">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E192" t="s">
         <v>418</v>
@@ -6469,7 +6469,7 @@
         <v>5</v>
       </c>
       <c r="C194">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E194" t="s">
         <v>418</v>
@@ -6506,7 +6506,7 @@
         <v>5</v>
       </c>
       <c r="C196">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E196" t="s">
         <v>418</v>
@@ -6543,7 +6543,7 @@
         <v>5</v>
       </c>
       <c r="C198">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E198" t="s">
         <v>418</v>
@@ -6617,7 +6617,7 @@
         <v>5</v>
       </c>
       <c r="C202">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E202" t="s">
         <v>418</v>
@@ -6654,7 +6654,7 @@
         <v>5</v>
       </c>
       <c r="C204">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E204" t="s">
         <v>418</v>
@@ -6691,7 +6691,7 @@
         <v>5</v>
       </c>
       <c r="C206">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E206" t="s">
         <v>418</v>
@@ -6728,7 +6728,7 @@
         <v>5</v>
       </c>
       <c r="C208">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E208" t="s">
         <v>418</v>
@@ -6765,7 +6765,7 @@
         <v>5</v>
       </c>
       <c r="C210">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E210" t="s">
         <v>418</v>
@@ -6802,7 +6802,7 @@
         <v>5</v>
       </c>
       <c r="C212">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E212" t="s">
         <v>418</v>
@@ -6839,7 +6839,7 @@
         <v>5</v>
       </c>
       <c r="C214">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E214" t="s">
         <v>418</v>
@@ -6876,7 +6876,7 @@
         <v>5</v>
       </c>
       <c r="C216">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E216" t="s">
         <v>418</v>
@@ -7022,7 +7022,7 @@
         <v>5</v>
       </c>
       <c r="C223">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E223" t="s">
         <v>418</v>
@@ -7059,7 +7059,7 @@
         <v>5</v>
       </c>
       <c r="C225">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E225" t="s">
         <v>418</v>
@@ -7096,7 +7096,7 @@
         <v>5</v>
       </c>
       <c r="C227">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E227" t="s">
         <v>418</v>
@@ -7133,7 +7133,7 @@
         <v>5</v>
       </c>
       <c r="C229">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E229" t="s">
         <v>418</v>
@@ -7170,7 +7170,7 @@
         <v>5</v>
       </c>
       <c r="C231">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E231" t="s">
         <v>418</v>
@@ -7207,7 +7207,7 @@
         <v>5</v>
       </c>
       <c r="C233">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E233" t="s">
         <v>418</v>
@@ -7244,7 +7244,7 @@
         <v>5</v>
       </c>
       <c r="C235">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E235" t="s">
         <v>418</v>
@@ -7281,7 +7281,7 @@
         <v>5</v>
       </c>
       <c r="C237">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E237" t="s">
         <v>418</v>
@@ -7318,7 +7318,7 @@
         <v>5</v>
       </c>
       <c r="C239">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E239" t="s">
         <v>418</v>
@@ -7355,7 +7355,7 @@
         <v>5</v>
       </c>
       <c r="C241">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E241" t="s">
         <v>418</v>
@@ -7392,7 +7392,7 @@
         <v>5</v>
       </c>
       <c r="C243">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E243" t="s">
         <v>418</v>
@@ -7429,7 +7429,7 @@
         <v>5</v>
       </c>
       <c r="C245">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E245" t="s">
         <v>418</v>
@@ -7466,7 +7466,7 @@
         <v>5</v>
       </c>
       <c r="C247">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E247" t="s">
         <v>418</v>
@@ -7503,7 +7503,7 @@
         <v>5</v>
       </c>
       <c r="C249">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E249" t="s">
         <v>418</v>
@@ -7540,7 +7540,7 @@
         <v>5</v>
       </c>
       <c r="C251">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E251" t="s">
         <v>418</v>
@@ -7577,7 +7577,7 @@
         <v>5</v>
       </c>
       <c r="C253">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E253" t="s">
         <v>418</v>
@@ -7614,7 +7614,7 @@
         <v>5</v>
       </c>
       <c r="C255">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E255" t="s">
         <v>418</v>
@@ -7688,7 +7688,7 @@
         <v>5</v>
       </c>
       <c r="C259">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E259" t="s">
         <v>418</v>
@@ -7725,7 +7725,7 @@
         <v>5</v>
       </c>
       <c r="C261">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E261" t="s">
         <v>418</v>
@@ -7762,7 +7762,7 @@
         <v>5</v>
       </c>
       <c r="C263">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E263" t="s">
         <v>418</v>
@@ -7799,7 +7799,7 @@
         <v>5</v>
       </c>
       <c r="C265">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E265" t="s">
         <v>418</v>
@@ -7945,7 +7945,7 @@
         <v>5</v>
       </c>
       <c r="C272">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E272" t="s">
         <v>418</v>
@@ -7982,7 +7982,7 @@
         <v>5</v>
       </c>
       <c r="C274">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E274" t="s">
         <v>418</v>
@@ -8019,7 +8019,7 @@
         <v>5</v>
       </c>
       <c r="C276">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E276" t="s">
         <v>418</v>
@@ -8056,7 +8056,7 @@
         <v>5</v>
       </c>
       <c r="C278">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E278" t="s">
         <v>418</v>
@@ -8093,7 +8093,7 @@
         <v>5</v>
       </c>
       <c r="C280">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E280" t="s">
         <v>418</v>
@@ -8130,7 +8130,7 @@
         <v>5</v>
       </c>
       <c r="C282">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E282" t="s">
         <v>418</v>
@@ -8167,7 +8167,7 @@
         <v>5</v>
       </c>
       <c r="C284">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E284" t="s">
         <v>418</v>
@@ -8204,7 +8204,7 @@
         <v>5</v>
       </c>
       <c r="C286">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E286" t="s">
         <v>418</v>
@@ -8241,7 +8241,7 @@
         <v>5</v>
       </c>
       <c r="C288">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E288" t="s">
         <v>418</v>
@@ -8278,7 +8278,7 @@
         <v>5</v>
       </c>
       <c r="C290">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E290" t="s">
         <v>418</v>
@@ -8315,7 +8315,7 @@
         <v>5</v>
       </c>
       <c r="C292">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E292" t="s">
         <v>418</v>
@@ -8352,7 +8352,7 @@
         <v>5</v>
       </c>
       <c r="C294">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E294" t="s">
         <v>418</v>
@@ -8389,7 +8389,7 @@
         <v>5</v>
       </c>
       <c r="C296">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E296" t="s">
         <v>418</v>
@@ -8426,7 +8426,7 @@
         <v>5</v>
       </c>
       <c r="C298">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E298" t="s">
         <v>418</v>
@@ -8463,7 +8463,7 @@
         <v>5</v>
       </c>
       <c r="C300">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E300" t="s">
         <v>418</v>
@@ -8500,7 +8500,7 @@
         <v>5</v>
       </c>
       <c r="C302">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E302" t="s">
         <v>418</v>
@@ -8537,7 +8537,7 @@
         <v>5</v>
       </c>
       <c r="C304">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E304" t="s">
         <v>418</v>
@@ -8574,7 +8574,7 @@
         <v>5</v>
       </c>
       <c r="C306">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E306" t="s">
         <v>418</v>
@@ -8611,7 +8611,7 @@
         <v>5</v>
       </c>
       <c r="C308">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E308" t="s">
         <v>418</v>
@@ -8648,7 +8648,7 @@
         <v>5</v>
       </c>
       <c r="C310">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E310" t="s">
         <v>418</v>
@@ -8722,7 +8722,7 @@
         <v>5</v>
       </c>
       <c r="C314">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E314" t="s">
         <v>418</v>
@@ -8759,7 +8759,7 @@
         <v>5</v>
       </c>
       <c r="C316">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E316" t="s">
         <v>418</v>
@@ -8796,7 +8796,7 @@
         <v>5</v>
       </c>
       <c r="C318">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E318" t="s">
         <v>418</v>
@@ -8833,7 +8833,7 @@
         <v>5</v>
       </c>
       <c r="C320">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E320" t="s">
         <v>418</v>
@@ -8907,7 +8907,7 @@
         <v>5</v>
       </c>
       <c r="C324">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E324" t="s">
         <v>418</v>
@@ -8944,7 +8944,7 @@
         <v>5</v>
       </c>
       <c r="C326">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E326" t="s">
         <v>418</v>
@@ -8981,7 +8981,7 @@
         <v>5</v>
       </c>
       <c r="C328">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E328" t="s">
         <v>418</v>
@@ -9018,7 +9018,7 @@
         <v>5</v>
       </c>
       <c r="C330">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E330" t="s">
         <v>418</v>
@@ -9201,7 +9201,7 @@
         <v>5</v>
       </c>
       <c r="C339">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E339" t="s">
         <v>418</v>
@@ -9238,7 +9238,7 @@
         <v>5</v>
       </c>
       <c r="C341">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E341" t="s">
         <v>418</v>
@@ -9275,7 +9275,7 @@
         <v>5</v>
       </c>
       <c r="C343">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E343" t="s">
         <v>418</v>
@@ -9312,7 +9312,7 @@
         <v>5</v>
       </c>
       <c r="C345">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E345" t="s">
         <v>418</v>
@@ -9349,7 +9349,7 @@
         <v>5</v>
       </c>
       <c r="C347">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E347" t="s">
         <v>418</v>
@@ -9386,7 +9386,7 @@
         <v>5</v>
       </c>
       <c r="C349">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E349" t="s">
         <v>418</v>
@@ -9423,7 +9423,7 @@
         <v>5</v>
       </c>
       <c r="C351">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E351" t="s">
         <v>418</v>
@@ -9460,7 +9460,7 @@
         <v>5</v>
       </c>
       <c r="C353">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E353" t="s">
         <v>418</v>
@@ -9497,7 +9497,7 @@
         <v>5</v>
       </c>
       <c r="C355">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E355" t="s">
         <v>418</v>
@@ -9534,7 +9534,7 @@
         <v>5</v>
       </c>
       <c r="C357">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E357" t="s">
         <v>418</v>
@@ -9571,7 +9571,7 @@
         <v>5</v>
       </c>
       <c r="C359">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E359" t="s">
         <v>418</v>
@@ -9608,7 +9608,7 @@
         <v>5</v>
       </c>
       <c r="C361">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E361" t="s">
         <v>418</v>
@@ -9645,7 +9645,7 @@
         <v>5</v>
       </c>
       <c r="C363">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E363" t="s">
         <v>418</v>
@@ -9682,7 +9682,7 @@
         <v>5</v>
       </c>
       <c r="C365">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E365" t="s">
         <v>418</v>
@@ -9719,7 +9719,7 @@
         <v>5</v>
       </c>
       <c r="C367">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E367" t="s">
         <v>418</v>
@@ -9756,7 +9756,7 @@
         <v>5</v>
       </c>
       <c r="C369">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E369" t="s">
         <v>418</v>
@@ -9793,7 +9793,7 @@
         <v>5</v>
       </c>
       <c r="C371">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E371" t="s">
         <v>418</v>
@@ -9830,7 +9830,7 @@
         <v>5</v>
       </c>
       <c r="C373">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E373" t="s">
         <v>418</v>
@@ -9867,7 +9867,7 @@
         <v>5</v>
       </c>
       <c r="C375">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E375" t="s">
         <v>418</v>
@@ -9941,7 +9941,7 @@
         <v>5</v>
       </c>
       <c r="C379">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E379" t="s">
         <v>418</v>
@@ -9978,7 +9978,7 @@
         <v>5</v>
       </c>
       <c r="C381">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E381" t="s">
         <v>418</v>
@@ -10052,7 +10052,7 @@
         <v>5</v>
       </c>
       <c r="C385">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E385" t="s">
         <v>418</v>
@@ -10089,7 +10089,7 @@
         <v>5</v>
       </c>
       <c r="C387">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E387" t="s">
         <v>418</v>
@@ -10163,7 +10163,7 @@
         <v>5</v>
       </c>
       <c r="C391">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E391" t="s">
         <v>418</v>
@@ -10309,7 +10309,7 @@
         <v>5</v>
       </c>
       <c r="C398">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E398" t="s">
         <v>418</v>
@@ -10346,7 +10346,7 @@
         <v>5</v>
       </c>
       <c r="C400">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E400" t="s">
         <v>418</v>
@@ -10383,7 +10383,7 @@
         <v>5</v>
       </c>
       <c r="C402">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E402" t="s">
         <v>418</v>
@@ -10420,7 +10420,7 @@
         <v>5</v>
       </c>
       <c r="C404">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E404" t="s">
         <v>418</v>
@@ -10457,7 +10457,7 @@
         <v>5</v>
       </c>
       <c r="C406">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E406" t="s">
         <v>418</v>
@@ -10494,7 +10494,7 @@
         <v>5</v>
       </c>
       <c r="C408">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E408" t="s">
         <v>418</v>
@@ -10531,7 +10531,7 @@
         <v>5</v>
       </c>
       <c r="C410">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E410" t="s">
         <v>418</v>
@@ -10568,7 +10568,7 @@
         <v>5</v>
       </c>
       <c r="C412">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E412" t="s">
         <v>418</v>
@@ -10605,7 +10605,7 @@
         <v>5</v>
       </c>
       <c r="C414">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E414" t="s">
         <v>418</v>
@@ -10642,7 +10642,7 @@
         <v>5</v>
       </c>
       <c r="C416">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E416" t="s">
         <v>418</v>
@@ -10679,7 +10679,7 @@
         <v>5</v>
       </c>
       <c r="C418">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E418" t="s">
         <v>418</v>
@@ -10716,7 +10716,7 @@
         <v>5</v>
       </c>
       <c r="C420">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E420" t="s">
         <v>418</v>
@@ -10753,7 +10753,7 @@
         <v>5</v>
       </c>
       <c r="C422">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E422" t="s">
         <v>418</v>
@@ -10790,7 +10790,7 @@
         <v>5</v>
       </c>
       <c r="C424">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E424" t="s">
         <v>418</v>
@@ -10827,7 +10827,7 @@
         <v>5</v>
       </c>
       <c r="C426">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E426" t="s">
         <v>418</v>
@@ -10864,7 +10864,7 @@
         <v>5</v>
       </c>
       <c r="C428">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E428" t="s">
         <v>418</v>
@@ -10901,7 +10901,7 @@
         <v>5</v>
       </c>
       <c r="C430">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E430" t="s">
         <v>418</v>
@@ -10938,7 +10938,7 @@
         <v>5</v>
       </c>
       <c r="C432">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E432" t="s">
         <v>418</v>
@@ -10975,7 +10975,7 @@
         <v>5</v>
       </c>
       <c r="C434">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E434" t="s">
         <v>418</v>
@@ -11012,7 +11012,7 @@
         <v>5</v>
       </c>
       <c r="C436">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E436" t="s">
         <v>418</v>
@@ -11049,7 +11049,7 @@
         <v>5</v>
       </c>
       <c r="C438">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E438" t="s">
         <v>418</v>
@@ -11086,7 +11086,7 @@
         <v>5</v>
       </c>
       <c r="C440">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E440" t="s">
         <v>418</v>
@@ -11123,7 +11123,7 @@
         <v>5</v>
       </c>
       <c r="C442">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E442" t="s">
         <v>418</v>
@@ -11160,7 +11160,7 @@
         <v>5</v>
       </c>
       <c r="C444">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E444" t="s">
         <v>418</v>
@@ -11197,7 +11197,7 @@
         <v>5</v>
       </c>
       <c r="C446">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E446" t="s">
         <v>418</v>
@@ -11234,7 +11234,7 @@
         <v>5</v>
       </c>
       <c r="C448">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E448" t="s">
         <v>418</v>
@@ -11271,7 +11271,7 @@
         <v>5</v>
       </c>
       <c r="C450">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E450" t="s">
         <v>418</v>
@@ -11308,7 +11308,7 @@
         <v>5</v>
       </c>
       <c r="C452">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E452" t="s">
         <v>418</v>
@@ -11345,7 +11345,7 @@
         <v>5</v>
       </c>
       <c r="C454">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E454" t="s">
         <v>418</v>
@@ -11382,7 +11382,7 @@
         <v>5</v>
       </c>
       <c r="C456">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E456" t="s">
         <v>418</v>
@@ -11419,7 +11419,7 @@
         <v>5</v>
       </c>
       <c r="C458">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E458" t="s">
         <v>418</v>
@@ -11456,7 +11456,7 @@
         <v>5</v>
       </c>
       <c r="C460">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E460" t="s">
         <v>418</v>
@@ -11602,7 +11602,7 @@
         <v>5</v>
       </c>
       <c r="C467">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E467" t="s">
         <v>418</v>
@@ -11639,7 +11639,7 @@
         <v>5</v>
       </c>
       <c r="C469">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E469" t="s">
         <v>418</v>
@@ -11676,7 +11676,7 @@
         <v>5</v>
       </c>
       <c r="C471">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E471" t="s">
         <v>418</v>
@@ -11713,7 +11713,7 @@
         <v>5</v>
       </c>
       <c r="C473">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E473" t="s">
         <v>418</v>
@@ -11750,7 +11750,7 @@
         <v>5</v>
       </c>
       <c r="C475">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E475" t="s">
         <v>418</v>
@@ -11787,7 +11787,7 @@
         <v>5</v>
       </c>
       <c r="C477">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E477" t="s">
         <v>418</v>
@@ -11824,7 +11824,7 @@
         <v>5</v>
       </c>
       <c r="C479">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E479" t="s">
         <v>418</v>
@@ -11861,7 +11861,7 @@
         <v>5</v>
       </c>
       <c r="C481">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E481" t="s">
         <v>418</v>
@@ -11898,7 +11898,7 @@
         <v>5</v>
       </c>
       <c r="C483">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E483" t="s">
         <v>418</v>
@@ -11935,7 +11935,7 @@
         <v>5</v>
       </c>
       <c r="C485">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E485" t="s">
         <v>418</v>
@@ -11972,7 +11972,7 @@
         <v>5</v>
       </c>
       <c r="C487">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E487" t="s">
         <v>418</v>
@@ -12009,7 +12009,7 @@
         <v>5</v>
       </c>
       <c r="C489">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E489" t="s">
         <v>418</v>
@@ -12046,7 +12046,7 @@
         <v>5</v>
       </c>
       <c r="C491">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E491" t="s">
         <v>418</v>
@@ -12083,7 +12083,7 @@
         <v>5</v>
       </c>
       <c r="C493">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E493" t="s">
         <v>418</v>
@@ -12120,7 +12120,7 @@
         <v>5</v>
       </c>
       <c r="C495">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E495" t="s">
         <v>418</v>
@@ -12157,7 +12157,7 @@
         <v>5</v>
       </c>
       <c r="C497">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E497" t="s">
         <v>418</v>
@@ -12194,7 +12194,7 @@
         <v>5</v>
       </c>
       <c r="C499">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E499" t="s">
         <v>418</v>
@@ -12231,7 +12231,7 @@
         <v>5</v>
       </c>
       <c r="C501">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E501" t="s">
         <v>418</v>
@@ -12268,7 +12268,7 @@
         <v>5</v>
       </c>
       <c r="C503">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E503" t="s">
         <v>418</v>
@@ -12305,7 +12305,7 @@
         <v>5</v>
       </c>
       <c r="C505">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E505" t="s">
         <v>418</v>
@@ -12342,7 +12342,7 @@
         <v>5</v>
       </c>
       <c r="C507">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E507" t="s">
         <v>418</v>
@@ -12599,7 +12599,7 @@
         <v>5</v>
       </c>
       <c r="C520">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E520" t="s">
         <v>418</v>
@@ -12636,7 +12636,7 @@
         <v>5</v>
       </c>
       <c r="C522">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E522" t="s">
         <v>418</v>
@@ -12673,7 +12673,7 @@
         <v>5</v>
       </c>
       <c r="C524">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E524" t="s">
         <v>418</v>
@@ -12710,7 +12710,7 @@
         <v>5</v>
       </c>
       <c r="C526">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E526" t="s">
         <v>418</v>
@@ -12747,7 +12747,7 @@
         <v>5</v>
       </c>
       <c r="C528">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E528" t="s">
         <v>418</v>
@@ -12784,7 +12784,7 @@
         <v>5</v>
       </c>
       <c r="C530">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E530" t="s">
         <v>418</v>
@@ -12821,7 +12821,7 @@
         <v>5</v>
       </c>
       <c r="C532">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E532" t="s">
         <v>418</v>
@@ -12858,7 +12858,7 @@
         <v>5</v>
       </c>
       <c r="C534">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E534" t="s">
         <v>418</v>
@@ -12895,7 +12895,7 @@
         <v>5</v>
       </c>
       <c r="C536">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E536" t="s">
         <v>418</v>
@@ -12932,7 +12932,7 @@
         <v>5</v>
       </c>
       <c r="C538">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E538" t="s">
         <v>418</v>
@@ -12969,7 +12969,7 @@
         <v>5</v>
       </c>
       <c r="C540">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E540" t="s">
         <v>418</v>
@@ -13006,7 +13006,7 @@
         <v>5</v>
       </c>
       <c r="C542">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E542" t="s">
         <v>418</v>
@@ -13043,7 +13043,7 @@
         <v>5</v>
       </c>
       <c r="C544">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E544" t="s">
         <v>418</v>
@@ -13080,7 +13080,7 @@
         <v>5</v>
       </c>
       <c r="C546">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E546" t="s">
         <v>418</v>
@@ -13117,7 +13117,7 @@
         <v>5</v>
       </c>
       <c r="C548">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E548" t="s">
         <v>418</v>
@@ -13154,7 +13154,7 @@
         <v>5</v>
       </c>
       <c r="C550">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E550" t="s">
         <v>418</v>
@@ -13191,7 +13191,7 @@
         <v>5</v>
       </c>
       <c r="C552">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E552" t="s">
         <v>418</v>
@@ -13228,7 +13228,7 @@
         <v>5</v>
       </c>
       <c r="C554">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E554" t="s">
         <v>418</v>
@@ -13265,7 +13265,7 @@
         <v>5</v>
       </c>
       <c r="C556">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E556" t="s">
         <v>418</v>
@@ -13302,7 +13302,7 @@
         <v>5</v>
       </c>
       <c r="C558">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E558" t="s">
         <v>418</v>
@@ -13339,7 +13339,7 @@
         <v>5</v>
       </c>
       <c r="C560">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E560" t="s">
         <v>418</v>
@@ -13376,7 +13376,7 @@
         <v>5</v>
       </c>
       <c r="C562">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E562" t="s">
         <v>418</v>
@@ -13413,7 +13413,7 @@
         <v>5</v>
       </c>
       <c r="C564">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E564" t="s">
         <v>418</v>
@@ -13450,7 +13450,7 @@
         <v>5</v>
       </c>
       <c r="C566">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E566" t="s">
         <v>418</v>
@@ -13487,7 +13487,7 @@
         <v>5</v>
       </c>
       <c r="C568">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E568" t="s">
         <v>418</v>
@@ -13524,7 +13524,7 @@
         <v>5</v>
       </c>
       <c r="C570">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E570" t="s">
         <v>418</v>
@@ -13561,7 +13561,7 @@
         <v>5</v>
       </c>
       <c r="C572">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E572" t="s">
         <v>418</v>
@@ -13598,7 +13598,7 @@
         <v>5</v>
       </c>
       <c r="C574">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E574" t="s">
         <v>418</v>
@@ -13744,7 +13744,7 @@
         <v>5</v>
       </c>
       <c r="C581">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E581" t="s">
         <v>418</v>
@@ -13781,7 +13781,7 @@
         <v>5</v>
       </c>
       <c r="C583">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E583" t="s">
         <v>418</v>
@@ -13818,7 +13818,7 @@
         <v>5</v>
       </c>
       <c r="C585">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E585" t="s">
         <v>418</v>
@@ -13855,7 +13855,7 @@
         <v>5</v>
       </c>
       <c r="C587">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E587" t="s">
         <v>418</v>
@@ -13892,7 +13892,7 @@
         <v>5</v>
       </c>
       <c r="C589">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E589" t="s">
         <v>418</v>
@@ -13929,7 +13929,7 @@
         <v>5</v>
       </c>
       <c r="C591">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E591" t="s">
         <v>418</v>
@@ -13966,7 +13966,7 @@
         <v>5</v>
       </c>
       <c r="C593">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E593" t="s">
         <v>418</v>
@@ -14003,7 +14003,7 @@
         <v>5</v>
       </c>
       <c r="C595">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E595" t="s">
         <v>418</v>
@@ -14040,7 +14040,7 @@
         <v>5</v>
       </c>
       <c r="C597">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E597" t="s">
         <v>418</v>
@@ -14077,7 +14077,7 @@
         <v>5</v>
       </c>
       <c r="C599">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E599" t="s">
         <v>418</v>
@@ -14114,7 +14114,7 @@
         <v>5</v>
       </c>
       <c r="C601">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E601" t="s">
         <v>418</v>
@@ -14151,7 +14151,7 @@
         <v>5</v>
       </c>
       <c r="C603">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E603" t="s">
         <v>418</v>
@@ -14188,7 +14188,7 @@
         <v>5</v>
       </c>
       <c r="C605">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E605" t="s">
         <v>418</v>
@@ -14225,7 +14225,7 @@
         <v>5</v>
       </c>
       <c r="C607">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E607" t="s">
         <v>418</v>
@@ -14262,7 +14262,7 @@
         <v>5</v>
       </c>
       <c r="C609">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E609" t="s">
         <v>418</v>
@@ -14299,7 +14299,7 @@
         <v>5</v>
       </c>
       <c r="C611">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E611" t="s">
         <v>418</v>
@@ -14336,7 +14336,7 @@
         <v>5</v>
       </c>
       <c r="C613">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E613" t="s">
         <v>418</v>
@@ -14373,7 +14373,7 @@
         <v>5</v>
       </c>
       <c r="C615">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E615" t="s">
         <v>418</v>
@@ -14410,7 +14410,7 @@
         <v>5</v>
       </c>
       <c r="C617">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E617" t="s">
         <v>418</v>
@@ -14447,7 +14447,7 @@
         <v>5</v>
       </c>
       <c r="C619">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E619" t="s">
         <v>418</v>
@@ -14484,7 +14484,7 @@
         <v>5</v>
       </c>
       <c r="C621">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E621" t="s">
         <v>418</v>
@@ -14521,7 +14521,7 @@
         <v>5</v>
       </c>
       <c r="C623">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E623" t="s">
         <v>418</v>
@@ -14558,7 +14558,7 @@
         <v>5</v>
       </c>
       <c r="C625">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E625" t="s">
         <v>418</v>
@@ -14595,7 +14595,7 @@
         <v>5</v>
       </c>
       <c r="C627">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E627" t="s">
         <v>418</v>
@@ -14741,7 +14741,7 @@
         <v>5</v>
       </c>
       <c r="C634">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E634" t="s">
         <v>418</v>
@@ -14778,7 +14778,7 @@
         <v>5</v>
       </c>
       <c r="C636">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E636" t="s">
         <v>418</v>
@@ -14815,7 +14815,7 @@
         <v>5</v>
       </c>
       <c r="C638">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E638" t="s">
         <v>418</v>
@@ -14852,7 +14852,7 @@
         <v>5</v>
       </c>
       <c r="C640">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E640" t="s">
         <v>418</v>
@@ -14889,7 +14889,7 @@
         <v>5</v>
       </c>
       <c r="C642">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E642" t="s">
         <v>418</v>
@@ -14926,7 +14926,7 @@
         <v>5</v>
       </c>
       <c r="C644">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E644" t="s">
         <v>418</v>
@@ -14963,7 +14963,7 @@
         <v>5</v>
       </c>
       <c r="C646">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E646" t="s">
         <v>418</v>
@@ -15000,7 +15000,7 @@
         <v>5</v>
       </c>
       <c r="C648">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E648" t="s">
         <v>418</v>
@@ -15037,7 +15037,7 @@
         <v>5</v>
       </c>
       <c r="C650">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E650" t="s">
         <v>418</v>
@@ -15074,7 +15074,7 @@
         <v>5</v>
       </c>
       <c r="C652">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E652" t="s">
         <v>418</v>
@@ -15111,7 +15111,7 @@
         <v>5</v>
       </c>
       <c r="C654">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E654" t="s">
         <v>418</v>
@@ -15148,7 +15148,7 @@
         <v>5</v>
       </c>
       <c r="C656">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E656" t="s">
         <v>418</v>
@@ -15185,7 +15185,7 @@
         <v>5</v>
       </c>
       <c r="C658">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E658" t="s">
         <v>418</v>
@@ -15222,7 +15222,7 @@
         <v>5</v>
       </c>
       <c r="C660">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E660" t="s">
         <v>418</v>
@@ -15259,7 +15259,7 @@
         <v>5</v>
       </c>
       <c r="C662">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E662" t="s">
         <v>418</v>
@@ -15296,7 +15296,7 @@
         <v>5</v>
       </c>
       <c r="C664">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E664" t="s">
         <v>418</v>
@@ -15333,7 +15333,7 @@
         <v>5</v>
       </c>
       <c r="C666">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E666" t="s">
         <v>418</v>
@@ -15370,7 +15370,7 @@
         <v>5</v>
       </c>
       <c r="C668">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E668" t="s">
         <v>418</v>
@@ -15407,7 +15407,7 @@
         <v>5</v>
       </c>
       <c r="C670">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E670" t="s">
         <v>418</v>
@@ -15444,7 +15444,7 @@
         <v>5</v>
       </c>
       <c r="C672">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E672" t="s">
         <v>418</v>
@@ -15481,7 +15481,7 @@
         <v>5</v>
       </c>
       <c r="C674">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E674" t="s">
         <v>418</v>
@@ -15518,7 +15518,7 @@
         <v>5</v>
       </c>
       <c r="C676">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E676" t="s">
         <v>418</v>
@@ -15664,7 +15664,7 @@
         <v>5</v>
       </c>
       <c r="C683">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E683" t="s">
         <v>418</v>
@@ -15701,7 +15701,7 @@
         <v>5</v>
       </c>
       <c r="C685">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E685" t="s">
         <v>418</v>
@@ -15738,7 +15738,7 @@
         <v>5</v>
       </c>
       <c r="C687">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E687" t="s">
         <v>418</v>
@@ -15775,7 +15775,7 @@
         <v>5</v>
       </c>
       <c r="C689">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E689" t="s">
         <v>418</v>
@@ -15812,7 +15812,7 @@
         <v>5</v>
       </c>
       <c r="C691">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E691" t="s">
         <v>418</v>
@@ -15849,7 +15849,7 @@
         <v>5</v>
       </c>
       <c r="C693">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E693" t="s">
         <v>418</v>
@@ -15886,7 +15886,7 @@
         <v>5</v>
       </c>
       <c r="C695">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E695" t="s">
         <v>418</v>
@@ -15923,7 +15923,7 @@
         <v>5</v>
       </c>
       <c r="C697">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E697" t="s">
         <v>418</v>
@@ -15960,7 +15960,7 @@
         <v>5</v>
       </c>
       <c r="C699">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E699" t="s">
         <v>418</v>
@@ -15997,7 +15997,7 @@
         <v>5</v>
       </c>
       <c r="C701">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E701" t="s">
         <v>418</v>
@@ -16034,7 +16034,7 @@
         <v>5</v>
       </c>
       <c r="C703">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E703" t="s">
         <v>418</v>
@@ -16071,7 +16071,7 @@
         <v>5</v>
       </c>
       <c r="C705">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E705" t="s">
         <v>418</v>
@@ -16108,7 +16108,7 @@
         <v>5</v>
       </c>
       <c r="C707">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E707" t="s">
         <v>418</v>
@@ -16145,7 +16145,7 @@
         <v>5</v>
       </c>
       <c r="C709">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E709" t="s">
         <v>418</v>
@@ -16182,7 +16182,7 @@
         <v>5</v>
       </c>
       <c r="C711">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E711" t="s">
         <v>418</v>
@@ -16219,7 +16219,7 @@
         <v>5</v>
       </c>
       <c r="C713">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E713" t="s">
         <v>418</v>
@@ -16256,7 +16256,7 @@
         <v>5</v>
       </c>
       <c r="C715">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E715" t="s">
         <v>418</v>
@@ -16293,7 +16293,7 @@
         <v>5</v>
       </c>
       <c r="C717">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E717" t="s">
         <v>418</v>
